--- a/Electronics/Active Electrode/Notch Filter/Active TwinT/RCValueSelection.xlsx
+++ b/Electronics/Active Electrode/Notch Filter/Active TwinT/RCValueSelection.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huang\Desktop\Anima-EEG\Electronics\Filters\Notch\Active TwinT Notch Filter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huang\Desktop\Anima-EEG\Electronics\Active Electrode\Notch Filter\Active TwinT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>R</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>THIS WORKED, BUT NO 1% TOLERANCE RESISTORS AVAIL. AT THIS VALUE</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/stackpole-electronics-inc/RNF14FTD6K04/RNF14FTD6K04CT-ND/1975072</t>
   </si>
 </sst>
 </file>
@@ -248,11 +251,11 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1715,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1726,10 +1729,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2174,15 +2177,15 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <f>0.22*10^-6</f>
         <v>2.1999999999999998E-7</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="8">
         <f t="shared" si="0"/>
         <v>12057.192658476923</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="3"/>
@@ -2218,6 +2221,9 @@
       </c>
       <c r="C31" t="s">
         <v>23</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
